--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_개항기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_개항기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,24 +1924,988 @@
           <t>일본군의 경복궁 점령</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1896</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1894</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D72" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>영학당 설립</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>토문감계사 이중하 간도 파견</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D74" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>호포법 실시</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>대한천일은행 설립</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D76" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>이화학당 설립</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1886</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>양전사업 지계발급사업 실시</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D78" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>조선은행 설립</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D79" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>경인선 개통</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D80" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>토문감계사 이중하 간도 파견</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D81" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>유길준 서유견문 출간</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>11시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>한성은행 설립</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>11시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>서울에 일본 공사관 설치</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>11시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>보은집회</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>11시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>만세보 창간</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>11시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>천도교 설립</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>11시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>서북 철도국 설치</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D88" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>11시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>최익현 5불가소 상소</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>11시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>강화도 조약</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>간도관리사 이범윤 북간도 파견</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>김홍집 2차 수신사 파견</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>오산학교 설립</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>육영공원 폐교</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>서북경락사 어윤중 간도 파견</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>아관파천</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>용암포 사건</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>사립학교령 시행</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>소학교령에 의거한 소학교 설치</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>영학당 설립</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D100" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>광무개혁</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1897</v>
+      </c>
+      <c r="D101" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>경복궁 전등 설치</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D102" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>대한의원 설립</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>일본에 원산항 개항</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>톈진 조약</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>고부 민란</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D106" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>동문학 설립</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D107" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>유길준 서유견문 출간</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>용암포 사건</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1903</v>
+      </c>
+      <c r="D109" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>서북경락사 어윤중 간도 파견</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D110" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>대한의원 설립</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>최익현 5불가소 상소</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>천도교 설립</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>영학당 설립</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>경복궁 전등 설치</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>부들러의 중립화론 소개</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>거문도 사건</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1906</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20230101</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>국채 보상 운동</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>20230101</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>10시 27분</t>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_개항기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_개항기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2888,24 +2888,1030 @@
           <t>국채 보상 운동</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>1907</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>20230101</t>
-        </is>
+      <c r="B118" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20230101</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>서북경락사 어윤중 간도 파견</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1886</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>08시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>유길준 서유견문 출간</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D120" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>최익현 5불가소 상소</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D121" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>경복궁 전등 설치</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>부들러의 중립화론 소개</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>영학당 설립</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1876</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>대한의원 설립</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>08시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>대한의원 설립</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>고부 민란</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>일본군의 경복궁 점령</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D128" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>상공학교 설립</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>09시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>의회 설립 법안 합의</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>09시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>일본에 원산항 개항</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>09시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>대한의원 설립</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>09시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>동문학 설립</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>오산학교 설립</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>한성순보 발행 중단</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1884</v>
+      </c>
+      <c r="D135" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>광제원 설립</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>보빙사 파견</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>노비 세습제 폐지</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1886</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>박정양 내각 수립</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D139" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>09시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>우금치 전투</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1894</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>소학교령에 의거한 소학교 설치</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1902</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D141" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>토문감계사 이중하 간도 파견</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D142" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>국문연구소 설립</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1907</v>
+      </c>
+      <c r="D143" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>대한매일신보 창간</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1904</v>
+      </c>
+      <c r="D144" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>통리기무아문 설치</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D145" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>09시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>통감부 설치</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1906</v>
+      </c>
+      <c r="D146" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>09시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>대한제국 칙령 41호 반포</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1893</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D147" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>09시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>베베르 고무라 각서</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D148" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>제너럴 셔먼호 사건</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D149" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>교육 입국 조서 반포</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1901</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D150" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>광혜원 설립</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D151" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>기유각서</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1907</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D152" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>09시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>신채호 대한매일신보에 독사신론 연재</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D153" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>춘생문 사건</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1909</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D154" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>조러 수호통상조약</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1898</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1884</v>
+      </c>
+      <c r="D155" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>헌정연구회 설립</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D156" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4차 김홍집 내각</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1896</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D157" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>연호 건양 사용</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1898</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1896</v>
+      </c>
+      <c r="D158" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>한성사범학교 설립</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>오페르트 도굴 사건</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>평식원 설치</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D161" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>호포법 실시</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1871</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>경인선 개통</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D163" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>만동묘 철폐</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1863</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D164" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>홍범 14조 반포</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1895</v>
+      </c>
+      <c r="D165" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>동문학 설립</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
         </is>
       </c>
     </row>
